--- a/projekti25 GANT.xlsx
+++ b/projekti25 GANT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://edumailturku-my.sharepoint.com/personal/tm4262_edu_turku_fi/Documents/Documents/ohjelmointia/projekti25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="224" documentId="8_{B49A85A6-4A71-413C-ACA4-D00A555B2CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14BE1DC8-F650-47F9-B964-A802367CC56F}"/>
+  <xr:revisionPtr revIDLastSave="240" documentId="8_{B49A85A6-4A71-413C-ACA4-D00A555B2CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D801C86-B155-486B-BA71-38616B6C99B3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1158,51 +1158,7 @@
     <cellStyle name="Task" xfId="12" xr:uid="{6391D789-272B-4DD2-9BF3-2CDCF610FA41}"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="25">
     <dxf>
       <fill>
         <patternFill>
@@ -1511,15 +1467,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="27"/>
-      <tableStyleElement type="headerRow" dxfId="26"/>
-      <tableStyleElement type="totalRow" dxfId="25"/>
-      <tableStyleElement type="firstColumn" dxfId="24"/>
-      <tableStyleElement type="lastColumn" dxfId="23"/>
-      <tableStyleElement type="firstRowStripe" dxfId="22"/>
-      <tableStyleElement type="secondRowStripe" dxfId="21"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="20"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="19"/>
+      <tableStyleElement type="wholeTable" dxfId="24"/>
+      <tableStyleElement type="headerRow" dxfId="23"/>
+      <tableStyleElement type="totalRow" dxfId="22"/>
+      <tableStyleElement type="firstColumn" dxfId="21"/>
+      <tableStyleElement type="lastColumn" dxfId="20"/>
+      <tableStyleElement type="firstRowStripe" dxfId="19"/>
+      <tableStyleElement type="secondRowStripe" dxfId="18"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="17"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="16"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1876,8 +1832,8 @@
   </sheetPr>
   <dimension ref="A1:BS36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="E13" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="BN19" sqref="BN19"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="E23" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="BN27" sqref="BN27:BN31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="30" customHeight="1"/>
@@ -3324,6 +3280,7 @@
       <c r="BK16" s="51"/>
       <c r="BL16" s="51"/>
       <c r="BM16" s="51"/>
+      <c r="BN16" s="51"/>
     </row>
     <row r="17" spans="1:66" s="46" customFormat="1" ht="30" customHeight="1">
       <c r="A17" s="13"/>
@@ -3406,6 +3363,7 @@
       <c r="BK17" s="51"/>
       <c r="BL17" s="51"/>
       <c r="BM17" s="51"/>
+      <c r="BN17" s="51"/>
     </row>
     <row r="18" spans="1:66" s="46" customFormat="1" ht="30" customHeight="1">
       <c r="A18" s="13"/>
@@ -3488,6 +3446,7 @@
       <c r="BK18" s="51"/>
       <c r="BL18" s="51"/>
       <c r="BM18" s="51"/>
+      <c r="BN18" s="51"/>
     </row>
     <row r="19" spans="1:66" s="46" customFormat="1" ht="30" customHeight="1">
       <c r="A19" s="13"/>
@@ -3724,6 +3683,7 @@
       <c r="BK21" s="51"/>
       <c r="BL21" s="51"/>
       <c r="BM21" s="51"/>
+      <c r="BN21" s="51"/>
     </row>
     <row r="22" spans="1:66" s="46" customFormat="1" ht="30" customHeight="1">
       <c r="A22" s="13"/>
@@ -3806,6 +3766,7 @@
       <c r="BK22" s="51"/>
       <c r="BL22" s="51"/>
       <c r="BM22" s="51"/>
+      <c r="BN22" s="51"/>
     </row>
     <row r="23" spans="1:66" s="46" customFormat="1" ht="30" customHeight="1">
       <c r="A23" s="13"/>
@@ -3888,6 +3849,7 @@
       <c r="BK23" s="51"/>
       <c r="BL23" s="51"/>
       <c r="BM23" s="51"/>
+      <c r="BN23" s="51"/>
     </row>
     <row r="24" spans="1:66" s="46" customFormat="1" ht="30" customHeight="1">
       <c r="A24" s="13"/>
@@ -3970,6 +3932,7 @@
       <c r="BK24" s="51"/>
       <c r="BL24" s="51"/>
       <c r="BM24" s="51"/>
+      <c r="BN24" s="51"/>
     </row>
     <row r="25" spans="1:66" s="46" customFormat="1" ht="30" customHeight="1">
       <c r="A25" s="13"/>
@@ -4052,6 +4015,7 @@
       <c r="BK25" s="51"/>
       <c r="BL25" s="51"/>
       <c r="BM25" s="51"/>
+      <c r="BN25" s="51"/>
     </row>
     <row r="26" spans="1:66" s="46" customFormat="1" ht="30" customHeight="1">
       <c r="A26" s="13"/>
@@ -4123,7 +4087,6 @@
       <c r="BJ26" s="81"/>
       <c r="BK26" s="81"/>
       <c r="BL26" s="81"/>
-      <c r="BM26" s="51"/>
     </row>
     <row r="27" spans="1:66" s="46" customFormat="1" ht="30" customHeight="1">
       <c r="A27" s="13"/>
@@ -4206,6 +4169,7 @@
       <c r="BK27" s="51"/>
       <c r="BL27" s="51"/>
       <c r="BM27" s="51"/>
+      <c r="BN27" s="51"/>
     </row>
     <row r="28" spans="1:66" s="46" customFormat="1" ht="30" customHeight="1">
       <c r="A28" s="13"/>
@@ -4288,6 +4252,7 @@
       <c r="BK28" s="51"/>
       <c r="BL28" s="51"/>
       <c r="BM28" s="51"/>
+      <c r="BN28" s="51"/>
     </row>
     <row r="29" spans="1:66" s="46" customFormat="1" ht="30" customHeight="1">
       <c r="A29" s="13"/>
@@ -4370,6 +4335,7 @@
       <c r="BK29" s="51"/>
       <c r="BL29" s="51"/>
       <c r="BM29" s="51"/>
+      <c r="BN29" s="51"/>
     </row>
     <row r="30" spans="1:66" s="46" customFormat="1" ht="30" customHeight="1">
       <c r="A30" s="13"/>
@@ -4452,6 +4418,7 @@
       <c r="BK30" s="51"/>
       <c r="BL30" s="51"/>
       <c r="BM30" s="51"/>
+      <c r="BN30" s="51"/>
     </row>
     <row r="31" spans="1:66" s="46" customFormat="1" ht="30" customHeight="1">
       <c r="A31" s="13"/>
@@ -4533,6 +4500,7 @@
       <c r="BK31" s="51"/>
       <c r="BL31" s="51"/>
       <c r="BM31" s="51"/>
+      <c r="BN31" s="51"/>
     </row>
     <row r="32" spans="1:66" s="46" customFormat="1" ht="30" customHeight="1">
       <c r="A32" s="13"/>
@@ -4721,85 +4689,72 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31:AG31 AN31:BL31 AI31:AL31 I4:BL8 I10:BL30 I9:AV9 BM10:BN13 AX9:BN9 BM15:BM19 BM21:BM31">
-    <cfRule type="expression" dxfId="18" priority="2">
+  <conditionalFormatting sqref="I31:AG31 AN31:BL31 AI31:AL31 I4:BL8 I10:BL30 I9:AV9 BM10:BN13 AX9:BN9 BM15:BN19 BM21:BN25 BM27:BN31">
+    <cfRule type="expression" dxfId="15" priority="2">
       <formula>AND(TODAY()&gt;=I$5, TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9:AV9 I10:BN13 AX9:BN9 BM15:BM19 BM21:BM31">
-    <cfRule type="expression" dxfId="17" priority="7">
+  <conditionalFormatting sqref="I9:AV9 I10:BN13 AX9:BN9">
+    <cfRule type="expression" dxfId="14" priority="7">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="8" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:BL19">
-    <cfRule type="expression" dxfId="15" priority="5">
+  <conditionalFormatting sqref="I15:BN19">
+    <cfRule type="expression" dxfId="12" priority="5">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="6" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21:BL25">
-    <cfRule type="expression" dxfId="13" priority="3">
+  <conditionalFormatting sqref="I21:BN25">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27:BL30 I31:AG31 AN31:BL31 AI31:AL31">
-    <cfRule type="expression" dxfId="11" priority="37">
+  <conditionalFormatting sqref="I27:BL30 I31:AG31 AN31:BL31 AI31:AL31 BM27:BN31">
+    <cfRule type="expression" dxfId="8" priority="37">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="38" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH31">
-    <cfRule type="expression" dxfId="9" priority="40">
+    <cfRule type="expression" dxfId="6" priority="40">
       <formula>AND(TODAY()&gt;=AM$5, TODAY()&lt;AN$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH31">
-    <cfRule type="expression" dxfId="8" priority="43">
+    <cfRule type="expression" dxfId="5" priority="43">
       <formula>AND(task_start&lt;=AM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AM$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="44" stopIfTrue="1">
       <formula>AND(task_end&gt;=AM$5,task_start&lt;AN$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM4:BS6">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>AND(TODAY()&gt;=BM$5, TODAY()&lt;BN$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW9">
-    <cfRule type="expression" dxfId="5" priority="46">
+    <cfRule type="expression" dxfId="2" priority="46">
       <formula>AND(TODAY()&gt;=BL$5, TODAY()&lt;BM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW9">
-    <cfRule type="expression" dxfId="4" priority="49">
+    <cfRule type="expression" dxfId="1" priority="49">
       <formula>AND(task_start&lt;=BL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BL$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="50" stopIfTrue="1">
       <formula>AND(task_end&gt;=BL$5,task_start&lt;BM$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN15 BN19">
-    <cfRule type="expression" dxfId="2" priority="52">
-      <formula>AND(TODAY()&gt;=BM$5, TODAY()&lt;BN$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN15 BN19">
-    <cfRule type="expression" dxfId="1" priority="55">
-      <formula>AND(task_start&lt;=BM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BM$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="56" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BM$5,task_start&lt;BN$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
